--- a/data/pca/factorExposure/factorExposure_2017-10-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02392203491469259</v>
+        <v>0.01311032233844618</v>
       </c>
       <c r="C2">
-        <v>-0.003447821245816882</v>
+        <v>-0.0387394950517933</v>
       </c>
       <c r="D2">
-        <v>0.01692020529719954</v>
+        <v>-0.02868188683153298</v>
       </c>
       <c r="E2">
-        <v>-0.01461344192371952</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03227671865909927</v>
+      </c>
+      <c r="F2">
+        <v>0.01806878057491337</v>
+      </c>
+      <c r="G2">
+        <v>0.02208206570946792</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01234767381846267</v>
+        <v>0.0521129445991764</v>
       </c>
       <c r="C3">
-        <v>-0.04869629500296779</v>
+        <v>-0.07434753821507302</v>
       </c>
       <c r="D3">
-        <v>0.01398926055127299</v>
+        <v>-0.01449275937142179</v>
       </c>
       <c r="E3">
-        <v>-0.01105795245163135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08918520685132035</v>
+      </c>
+      <c r="F3">
+        <v>0.06049500797013981</v>
+      </c>
+      <c r="G3">
+        <v>0.07361367131544619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02197269863462011</v>
+        <v>0.05649117212594886</v>
       </c>
       <c r="C4">
-        <v>-0.01845866307912976</v>
+        <v>-0.06229125242129061</v>
       </c>
       <c r="D4">
-        <v>0.06311853432144511</v>
+        <v>-0.0227123858828099</v>
       </c>
       <c r="E4">
-        <v>0.01229998270241835</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01447909372114769</v>
+      </c>
+      <c r="F4">
+        <v>0.006218172291614135</v>
+      </c>
+      <c r="G4">
+        <v>0.04745941427872234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01529459316140534</v>
+        <v>0.03303019241961272</v>
       </c>
       <c r="C6">
-        <v>-0.02508754072789522</v>
+        <v>-0.05250316496432638</v>
       </c>
       <c r="D6">
-        <v>0.08279777111251302</v>
+        <v>-0.01602586908539331</v>
       </c>
       <c r="E6">
-        <v>-0.001514336733044623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01134847035563271</v>
+      </c>
+      <c r="F6">
+        <v>0.007510420603539582</v>
+      </c>
+      <c r="G6">
+        <v>0.02757071178800257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01031166140613199</v>
+        <v>0.02017520276908211</v>
       </c>
       <c r="C7">
-        <v>-0.005632543163206458</v>
+        <v>-0.03644140035722496</v>
       </c>
       <c r="D7">
-        <v>0.03974111436758176</v>
+        <v>-0.01266728212402284</v>
       </c>
       <c r="E7">
-        <v>0.06787333377164044</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01055612639391949</v>
+      </c>
+      <c r="F7">
+        <v>0.002953558760716399</v>
+      </c>
+      <c r="G7">
+        <v>0.07828746769591224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0002252137067655526</v>
+        <v>0.000171458101807513</v>
       </c>
       <c r="C8">
-        <v>0.008639477528575508</v>
+        <v>-0.01418374386006033</v>
       </c>
       <c r="D8">
-        <v>0.01742669771860613</v>
+        <v>-0.003430397084434879</v>
       </c>
       <c r="E8">
-        <v>0.005218409966823241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01215829703961883</v>
+      </c>
+      <c r="F8">
+        <v>0.01894755052290533</v>
+      </c>
+      <c r="G8">
+        <v>0.02168405375752307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01454773016613172</v>
+        <v>0.028990929507625</v>
       </c>
       <c r="C9">
-        <v>-0.01849144231414806</v>
+        <v>-0.04323119306938751</v>
       </c>
       <c r="D9">
-        <v>0.04553788219218493</v>
+        <v>-0.0159536162059622</v>
       </c>
       <c r="E9">
-        <v>0.002602492616922798</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01576508194426272</v>
+      </c>
+      <c r="F9">
+        <v>0.01284955941806558</v>
+      </c>
+      <c r="G9">
+        <v>0.03832657863810895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.009747403576777508</v>
+        <v>0.09025037388602339</v>
       </c>
       <c r="C10">
-        <v>-0.1442112099062037</v>
+        <v>0.1854100412754336</v>
       </c>
       <c r="D10">
-        <v>-0.1347990444257858</v>
+        <v>0.01905453494010043</v>
       </c>
       <c r="E10">
-        <v>0.01960291032345061</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01535604527598824</v>
+      </c>
+      <c r="F10">
+        <v>-0.0148518898186032</v>
+      </c>
+      <c r="G10">
+        <v>0.03903704165372371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0003083989780004365</v>
+        <v>0.03445435949951289</v>
       </c>
       <c r="C11">
-        <v>-0.007969793476763735</v>
+        <v>-0.05333674119315509</v>
       </c>
       <c r="D11">
-        <v>0.04523358586706397</v>
+        <v>-0.001947902738157041</v>
       </c>
       <c r="E11">
-        <v>-0.01305241422052352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.003745074743173243</v>
+      </c>
+      <c r="F11">
+        <v>0.01960547530000693</v>
+      </c>
+      <c r="G11">
+        <v>0.02159381033517666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.00552861649942812</v>
+        <v>0.03233284366694792</v>
       </c>
       <c r="C12">
-        <v>-0.01567021307048437</v>
+        <v>-0.04456077326104235</v>
       </c>
       <c r="D12">
-        <v>0.04748215653706851</v>
+        <v>-0.005831648602104522</v>
       </c>
       <c r="E12">
-        <v>-0.004116116592336845</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.003020762457589294</v>
+      </c>
+      <c r="F12">
+        <v>0.004589601175458491</v>
+      </c>
+      <c r="G12">
+        <v>0.02522261312516029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02161595187969475</v>
+        <v>0.01395298034295016</v>
       </c>
       <c r="C13">
-        <v>-0.01673800037179061</v>
+        <v>-0.03244578499159505</v>
       </c>
       <c r="D13">
-        <v>0.01123253852395165</v>
+        <v>-0.02478893257258555</v>
       </c>
       <c r="E13">
-        <v>-0.00929543091445632</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02507736846258969</v>
+      </c>
+      <c r="F13">
+        <v>0.01172857713015451</v>
+      </c>
+      <c r="G13">
+        <v>0.03147525335084962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007015406152679081</v>
+        <v>0.009489049883791751</v>
       </c>
       <c r="C14">
-        <v>-0.0123219869215418</v>
+        <v>-0.02679880049418903</v>
       </c>
       <c r="D14">
-        <v>0.01810348630248867</v>
+        <v>-0.008479185808182728</v>
       </c>
       <c r="E14">
-        <v>0.009288239138750641</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004172244829792495</v>
+      </c>
+      <c r="F14">
+        <v>-0.001986951378879958</v>
+      </c>
+      <c r="G14">
+        <v>0.03866943462370279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0007020755366941236</v>
+        <v>0.03198127080189102</v>
       </c>
       <c r="C16">
-        <v>-0.01279421753443725</v>
+        <v>-0.04319402685073285</v>
       </c>
       <c r="D16">
-        <v>0.05184445017098128</v>
+        <v>-0.00140777519384126</v>
       </c>
       <c r="E16">
-        <v>-0.007393363096191074</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.006058107013924969</v>
+      </c>
+      <c r="F16">
+        <v>0.009286352872580639</v>
+      </c>
+      <c r="G16">
+        <v>0.02339862615812058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01325500653524126</v>
+        <v>0.0284807931302161</v>
       </c>
       <c r="C19">
-        <v>-0.0288420645158995</v>
+        <v>-0.04927263509085147</v>
       </c>
       <c r="D19">
-        <v>0.02766146686880782</v>
+        <v>-0.01583453459378616</v>
       </c>
       <c r="E19">
-        <v>0.003020485310094047</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05187528482230986</v>
+      </c>
+      <c r="F19">
+        <v>0.0294402257124247</v>
+      </c>
+      <c r="G19">
+        <v>0.04659199880073997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01036381872660878</v>
+        <v>0.01256694562175818</v>
       </c>
       <c r="C20">
-        <v>-0.005808465754184464</v>
+        <v>-0.03489821943371076</v>
       </c>
       <c r="D20">
-        <v>0.01470703247879931</v>
+        <v>-0.01311486347657092</v>
       </c>
       <c r="E20">
-        <v>-0.002619532948895229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02458500712280982</v>
+      </c>
+      <c r="F20">
+        <v>-0.002881344716878201</v>
+      </c>
+      <c r="G20">
+        <v>0.0369212599697673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01388655619181489</v>
+        <v>0.01699854671910469</v>
       </c>
       <c r="C21">
-        <v>-0.03795728095374214</v>
+        <v>-0.03497936055748629</v>
       </c>
       <c r="D21">
-        <v>0.01826170422805801</v>
+        <v>-0.01612363448810928</v>
       </c>
       <c r="E21">
-        <v>0.01778490799727421</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03274528384251794</v>
+      </c>
+      <c r="F21">
+        <v>0.00848742472387622</v>
+      </c>
+      <c r="G21">
+        <v>0.05920321369242315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004904250263291339</v>
+        <v>0.02650220816778932</v>
       </c>
       <c r="C24">
-        <v>-0.008656218231586481</v>
+        <v>-0.0459821206868721</v>
       </c>
       <c r="D24">
-        <v>0.04582719149602991</v>
+        <v>-0.006668568210565549</v>
       </c>
       <c r="E24">
-        <v>-0.007706381957321306</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.002249657184899361</v>
+      </c>
+      <c r="F24">
+        <v>0.01552105284001885</v>
+      </c>
+      <c r="G24">
+        <v>0.02493030375158216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01113156844316935</v>
+        <v>0.04324528169314183</v>
       </c>
       <c r="C25">
-        <v>-0.02476836205756399</v>
+        <v>-0.05309251145308319</v>
       </c>
       <c r="D25">
-        <v>0.04384307771520271</v>
+        <v>-0.01057255560059994</v>
       </c>
       <c r="E25">
-        <v>-0.006415236166042612</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.005686439445791266</v>
+      </c>
+      <c r="F25">
+        <v>0.01027926792776744</v>
+      </c>
+      <c r="G25">
+        <v>0.03084048350795049</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02266417869308507</v>
+        <v>0.01000926094990333</v>
       </c>
       <c r="C26">
-        <v>-0.007178339733962136</v>
+        <v>-0.0090902141783056</v>
       </c>
       <c r="D26">
-        <v>-0.003717845083314477</v>
+        <v>-0.02361081249132381</v>
       </c>
       <c r="E26">
-        <v>0.007260059873770657</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.01103010779016445</v>
+      </c>
+      <c r="F26">
+        <v>8.458723116933699e-05</v>
+      </c>
+      <c r="G26">
+        <v>0.02821958306187204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02772267924388322</v>
+        <v>0.1151525564391671</v>
       </c>
       <c r="C28">
-        <v>-0.2156965281966305</v>
+        <v>0.2265661597558896</v>
       </c>
       <c r="D28">
-        <v>-0.1918632832054017</v>
+        <v>0.01011770269950676</v>
       </c>
       <c r="E28">
-        <v>0.03129402538474993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.00181796502701522</v>
+      </c>
+      <c r="F28">
+        <v>-0.01495881654296131</v>
+      </c>
+      <c r="G28">
+        <v>0.0584069393229323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007292040566493755</v>
+        <v>0.01429573207511883</v>
       </c>
       <c r="C29">
-        <v>-0.01770061139679644</v>
+        <v>-0.02089159704719602</v>
       </c>
       <c r="D29">
-        <v>0.0145568425451577</v>
+        <v>-0.007115823378405502</v>
       </c>
       <c r="E29">
-        <v>0.005219254578935286</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.004975609502004342</v>
+      </c>
+      <c r="F29">
+        <v>-0.01260752423116412</v>
+      </c>
+      <c r="G29">
+        <v>0.02858294258078418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02323895179115157</v>
+        <v>0.04605648475730821</v>
       </c>
       <c r="C30">
-        <v>-0.004413581347308462</v>
+        <v>-0.06835513268370479</v>
       </c>
       <c r="D30">
-        <v>0.06437294962233674</v>
+        <v>-0.02723739287161537</v>
       </c>
       <c r="E30">
-        <v>-0.06149736014456047</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04050608643634895</v>
+      </c>
+      <c r="F30">
+        <v>0.04373508717318156</v>
+      </c>
+      <c r="G30">
+        <v>0.005493502367273714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.007188150595663332</v>
+        <v>0.04538613705761158</v>
       </c>
       <c r="C31">
-        <v>-0.04799741827774492</v>
+        <v>-0.03154929585098239</v>
       </c>
       <c r="D31">
-        <v>0.04136774790548668</v>
+        <v>-0.003364698622990921</v>
       </c>
       <c r="E31">
-        <v>0.001892016157458136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008090762189985798</v>
+      </c>
+      <c r="F31">
+        <v>-0.03670148279804249</v>
+      </c>
+      <c r="G31">
+        <v>0.02640791490294553</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006998796350615014</v>
+        <v>0.003201671235435217</v>
       </c>
       <c r="C32">
-        <v>-0.01438892502548497</v>
+        <v>-0.03641776547609619</v>
       </c>
       <c r="D32">
-        <v>0.008931520708362879</v>
+        <v>0.004027122983380915</v>
       </c>
       <c r="E32">
-        <v>0.02533425300146333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01377870484313489</v>
+      </c>
+      <c r="F32">
+        <v>0.0529279345011059</v>
+      </c>
+      <c r="G32">
+        <v>0.05610086508650219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01226472271811358</v>
+        <v>0.02726159131538667</v>
       </c>
       <c r="C33">
-        <v>-0.02473972252499117</v>
+        <v>-0.04905283940336325</v>
       </c>
       <c r="D33">
-        <v>0.02364974951696171</v>
+        <v>-0.01439647017642484</v>
       </c>
       <c r="E33">
-        <v>-0.0263766357040372</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02477277869426824</v>
+      </c>
+      <c r="F33">
+        <v>0.0254628743071976</v>
+      </c>
+      <c r="G33">
+        <v>0.0327513443416482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004781824681502894</v>
+        <v>0.04386379747409447</v>
       </c>
       <c r="C34">
-        <v>-0.02133935362219578</v>
+        <v>-0.05432115756300572</v>
       </c>
       <c r="D34">
-        <v>0.04996945811485694</v>
+        <v>0.00527177838023192</v>
       </c>
       <c r="E34">
-        <v>0.0009325581944195852</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.006993400834758055</v>
+      </c>
+      <c r="F34">
+        <v>0.02047513993290381</v>
+      </c>
+      <c r="G34">
+        <v>0.03689204048174659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01170744073951093</v>
+        <v>0.01145156830952627</v>
       </c>
       <c r="C36">
-        <v>-0.01739108371473305</v>
+        <v>-0.007243073564049514</v>
       </c>
       <c r="D36">
-        <v>0.002062398249641763</v>
+        <v>-0.01133077031028781</v>
       </c>
       <c r="E36">
-        <v>0.00181828847909543</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.004351348400350334</v>
+      </c>
+      <c r="F36">
+        <v>-0.004009293265238464</v>
+      </c>
+      <c r="G36">
+        <v>0.02362833584751388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006365295392152536</v>
+        <v>0.03202854990770297</v>
       </c>
       <c r="C38">
-        <v>-0.02662650016443328</v>
+        <v>-0.02560618580926976</v>
       </c>
       <c r="D38">
-        <v>0.02355007984958532</v>
+        <v>0.00783758614445681</v>
       </c>
       <c r="E38">
-        <v>0.0007051316603742912</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003927716821242368</v>
+      </c>
+      <c r="F38">
+        <v>-0.0041319129842139</v>
+      </c>
+      <c r="G38">
+        <v>0.03247375010810482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005980632508050567</v>
+        <v>0.03337783710657573</v>
       </c>
       <c r="C39">
-        <v>0.01371208418239742</v>
+        <v>-0.08032137498810279</v>
       </c>
       <c r="D39">
-        <v>0.0977114231519675</v>
+        <v>-0.01211274781222225</v>
       </c>
       <c r="E39">
-        <v>-0.01612232225409329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02564486561247565</v>
+      </c>
+      <c r="F39">
+        <v>0.0369287234004869</v>
+      </c>
+      <c r="G39">
+        <v>0.02742991813005561</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01065872067028976</v>
+        <v>0.02237162945518914</v>
       </c>
       <c r="C40">
-        <v>-0.01830447599014504</v>
+        <v>-0.03048480572632317</v>
       </c>
       <c r="D40">
-        <v>0.03937701087153474</v>
+        <v>-0.01285720806814018</v>
       </c>
       <c r="E40">
-        <v>-0.01125296184259903</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01963401342427644</v>
+      </c>
+      <c r="F40">
+        <v>0.01791107381559214</v>
+      </c>
+      <c r="G40">
+        <v>0.02339407564667452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005097015656591803</v>
+        <v>0.01282461988394108</v>
       </c>
       <c r="C41">
-        <v>-0.02042048875995539</v>
+        <v>0.001259908373221921</v>
       </c>
       <c r="D41">
-        <v>-0.00709448293226143</v>
+        <v>-0.003423993140610894</v>
       </c>
       <c r="E41">
-        <v>0.002779853054410723</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0007766559446722616</v>
+      </c>
+      <c r="F41">
+        <v>-0.002480233394859816</v>
+      </c>
+      <c r="G41">
+        <v>0.01571236033399547</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09475827108785206</v>
+        <v>0.02037599533682834</v>
       </c>
       <c r="C42">
-        <v>-0.04162225623841364</v>
+        <v>-0.04618390296797636</v>
       </c>
       <c r="D42">
-        <v>0.2308558712580842</v>
+        <v>-0.0971700785864158</v>
       </c>
       <c r="E42">
-        <v>-0.2947919214221125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.0417177563741954</v>
+      </c>
+      <c r="F42">
+        <v>-0.04577197835928453</v>
+      </c>
+      <c r="G42">
+        <v>-0.1806217650074515</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005854895243747738</v>
+        <v>0.02858319246432212</v>
       </c>
       <c r="C43">
-        <v>-0.02038392664885069</v>
+        <v>-0.008395239475721052</v>
       </c>
       <c r="D43">
-        <v>-0.01267528590960453</v>
+        <v>-0.003744717806789303</v>
       </c>
       <c r="E43">
-        <v>-0.0007110632843083166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.006174780822756153</v>
+      </c>
+      <c r="F43">
+        <v>-0.003798548836630804</v>
+      </c>
+      <c r="G43">
+        <v>0.0215472131089981</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002853658794165402</v>
+        <v>0.0171010941967945</v>
       </c>
       <c r="C44">
-        <v>0.001630028037301063</v>
+        <v>-0.04851930238168718</v>
       </c>
       <c r="D44">
-        <v>0.03042898652645494</v>
+        <v>-0.006302694783480482</v>
       </c>
       <c r="E44">
-        <v>0.001600571840438321</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01653093492405708</v>
+      </c>
+      <c r="F44">
+        <v>0.01094810654698695</v>
+      </c>
+      <c r="G44">
+        <v>0.03845356560453609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01056656324047597</v>
+        <v>0.006472088255036228</v>
       </c>
       <c r="C46">
-        <v>-0.01679716118894212</v>
+        <v>-0.01731860382811795</v>
       </c>
       <c r="D46">
-        <v>0.01801169929261162</v>
+        <v>-0.01161109707784075</v>
       </c>
       <c r="E46">
-        <v>-0.003664832973158574</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.001115202390307436</v>
+      </c>
+      <c r="F46">
+        <v>-0.0150878642813564</v>
+      </c>
+      <c r="G46">
+        <v>0.02556659762487952</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0009705929981075428</v>
+        <v>0.07387517680133146</v>
       </c>
       <c r="C47">
-        <v>-0.06185618648559955</v>
+        <v>-0.06458049745784913</v>
       </c>
       <c r="D47">
-        <v>0.04749097365538593</v>
+        <v>0.004996280228883918</v>
       </c>
       <c r="E47">
-        <v>-0.006875656940449059</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01490921201154219</v>
+      </c>
+      <c r="F47">
+        <v>-0.05564675426819161</v>
+      </c>
+      <c r="G47">
+        <v>0.02431659928758938</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.00255224021816303</v>
+        <v>0.02170345578262199</v>
       </c>
       <c r="C48">
-        <v>-0.02747522252538898</v>
+        <v>-0.009173152766046537</v>
       </c>
       <c r="D48">
-        <v>0.01067045574317367</v>
+        <v>-0.0005844823745319439</v>
       </c>
       <c r="E48">
-        <v>-0.0003896916499239157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.001451052973802707</v>
+      </c>
+      <c r="F48">
+        <v>-0.01581607947196305</v>
+      </c>
+      <c r="G48">
+        <v>0.0284957329631995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.00220143485669293</v>
+        <v>0.08041419032699204</v>
       </c>
       <c r="C50">
-        <v>-0.05154342818645509</v>
+        <v>-0.06602099406731704</v>
       </c>
       <c r="D50">
-        <v>0.06207106000368067</v>
+        <v>0.003764533186487851</v>
       </c>
       <c r="E50">
-        <v>0.01828306252054763</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01162892674103508</v>
+      </c>
+      <c r="F50">
+        <v>-0.05736310606869458</v>
+      </c>
+      <c r="G50">
+        <v>0.0473594703905592</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007038117237578272</v>
+        <v>0.01201066125490903</v>
       </c>
       <c r="C51">
-        <v>-0.02079379074815253</v>
+        <v>-0.02763914368824534</v>
       </c>
       <c r="D51">
-        <v>-0.01278221128900836</v>
+        <v>-0.008952755086434587</v>
       </c>
       <c r="E51">
-        <v>0.009268858063853835</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01171312936311935</v>
+      </c>
+      <c r="F51">
+        <v>0.02500962823135583</v>
+      </c>
+      <c r="G51">
+        <v>0.05228200601830067</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.003748056355406382</v>
+        <v>0.09260092834075882</v>
       </c>
       <c r="C53">
-        <v>-0.08338741797742194</v>
+        <v>-0.08078320818481816</v>
       </c>
       <c r="D53">
-        <v>0.102078011620488</v>
+        <v>0.005293384440834438</v>
       </c>
       <c r="E53">
-        <v>-0.00308680397727221</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04099958503068511</v>
+      </c>
+      <c r="F53">
+        <v>-0.06417957136132786</v>
+      </c>
+      <c r="G53">
+        <v>0.02508055823410152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001345722720365885</v>
+        <v>0.02976990858966909</v>
       </c>
       <c r="C54">
-        <v>-0.03359092334232811</v>
+        <v>-0.007766566998158211</v>
       </c>
       <c r="D54">
-        <v>-0.009891047467130673</v>
+        <v>0.003358698298237759</v>
       </c>
       <c r="E54">
-        <v>0.01110688727833784</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.005758821847617655</v>
+      </c>
+      <c r="F54">
+        <v>-0.003885936365550023</v>
+      </c>
+      <c r="G54">
+        <v>0.03340057013530091</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.001288637940266551</v>
+        <v>0.07228080103776748</v>
       </c>
       <c r="C55">
-        <v>-0.05933853167192298</v>
+        <v>-0.07361774184655957</v>
       </c>
       <c r="D55">
-        <v>0.0875560337710444</v>
+        <v>0.004437527860955984</v>
       </c>
       <c r="E55">
-        <v>-0.01432907287347659</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02945822504176406</v>
+      </c>
+      <c r="F55">
+        <v>-0.05791559711383598</v>
+      </c>
+      <c r="G55">
+        <v>0.01066968477181354</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0004445430835938778</v>
+        <v>0.1428436619780586</v>
       </c>
       <c r="C56">
-        <v>-0.1051167907498228</v>
+        <v>-0.104246154080964</v>
       </c>
       <c r="D56">
-        <v>0.1297808016504281</v>
+        <v>0.01355617016673673</v>
       </c>
       <c r="E56">
-        <v>-0.01507012090910085</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04351328398866115</v>
+      </c>
+      <c r="F56">
+        <v>-0.09300321262225143</v>
+      </c>
+      <c r="G56">
+        <v>-0.001804239985104542</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02311662083734658</v>
+        <v>0.01151039613792505</v>
       </c>
       <c r="C57">
-        <v>-0.02075884423422013</v>
+        <v>-0.01065501384570635</v>
       </c>
       <c r="D57">
-        <v>0.03796017519772449</v>
+        <v>-0.02360529516167687</v>
       </c>
       <c r="E57">
-        <v>-0.01253518180659262</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02822246160471439</v>
+      </c>
+      <c r="F57">
+        <v>0.01591354507732214</v>
+      </c>
+      <c r="G57">
+        <v>0.01984252480742817</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01002109389133583</v>
+        <v>0.08446216255891086</v>
       </c>
       <c r="C58">
-        <v>-0.0932620766107382</v>
+        <v>-0.0517238095390298</v>
       </c>
       <c r="D58">
-        <v>0.09807561130937817</v>
+        <v>-0.01890120838213545</v>
       </c>
       <c r="E58">
-        <v>-0.2142897013218562</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9456752735601378</v>
+      </c>
+      <c r="F58">
+        <v>-0.2214260935252964</v>
+      </c>
+      <c r="G58">
+        <v>0.006063095917694343</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02393928027436893</v>
+        <v>0.1525338763040985</v>
       </c>
       <c r="C59">
-        <v>-0.224234756452065</v>
+        <v>0.2119162906382145</v>
       </c>
       <c r="D59">
-        <v>-0.1917201922523811</v>
+        <v>0.01662414857310087</v>
       </c>
       <c r="E59">
-        <v>0.006619110041369254</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01278759262005491</v>
+      </c>
+      <c r="F59">
+        <v>0.00648464627011232</v>
+      </c>
+      <c r="G59">
+        <v>0.02046291629565863</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02988577846888794</v>
+        <v>0.291224558897049</v>
       </c>
       <c r="C60">
-        <v>-0.1661610817226062</v>
+        <v>-0.0880879303815095</v>
       </c>
       <c r="D60">
-        <v>0.07556343956245548</v>
+        <v>-0.008352525483437742</v>
       </c>
       <c r="E60">
-        <v>-0.04836334458566673</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.002621070013525359</v>
+      </c>
+      <c r="F60">
+        <v>0.3722123203923944</v>
+      </c>
+      <c r="G60">
+        <v>-0.0799879303700818</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002868509175494665</v>
+        <v>0.03354966135995578</v>
       </c>
       <c r="C61">
-        <v>-0.0102772169050951</v>
+        <v>-0.06384687740436995</v>
       </c>
       <c r="D61">
-        <v>0.06740558282695593</v>
+        <v>-0.005299475413091752</v>
       </c>
       <c r="E61">
-        <v>-0.009765602690364512</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01210256097411301</v>
+      </c>
+      <c r="F61">
+        <v>0.01946140359541346</v>
+      </c>
+      <c r="G61">
+        <v>0.02485792285245016</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007217735312785465</v>
+        <v>0.01218619643133861</v>
       </c>
       <c r="C63">
-        <v>-0.007200440485080394</v>
+        <v>-0.02911800004735248</v>
       </c>
       <c r="D63">
-        <v>0.008736743918103602</v>
+        <v>-0.008236739709138919</v>
       </c>
       <c r="E63">
-        <v>0.007074267710403727</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.006336591915728999</v>
+      </c>
+      <c r="F63">
+        <v>-0.01787008144680193</v>
+      </c>
+      <c r="G63">
+        <v>0.03628690920902211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006804066313215043</v>
+        <v>0.04981598061782531</v>
       </c>
       <c r="C64">
-        <v>-0.03549439265759426</v>
+        <v>-0.03856006213283187</v>
       </c>
       <c r="D64">
-        <v>0.06378100322056861</v>
+        <v>-0.004928556822312249</v>
       </c>
       <c r="E64">
-        <v>-0.0123044635822654</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.004986466230409542</v>
+      </c>
+      <c r="F64">
+        <v>0.004128744585972922</v>
+      </c>
+      <c r="G64">
+        <v>0.02194461329247515</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01765581965204423</v>
+        <v>0.08492159517398115</v>
       </c>
       <c r="C65">
-        <v>-0.03118252012641562</v>
+        <v>-0.06295676826095878</v>
       </c>
       <c r="D65">
-        <v>0.09293371920614989</v>
+        <v>-0.01476301419535707</v>
       </c>
       <c r="E65">
-        <v>-0.004112601079290877</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01067784943894954</v>
+      </c>
+      <c r="F65">
+        <v>0.02835289508662782</v>
+      </c>
+      <c r="G65">
+        <v>0.01143532669212911</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005531042871472242</v>
+        <v>0.05432655811590624</v>
       </c>
       <c r="C66">
-        <v>0.002714727674820636</v>
+        <v>-0.1135872537724308</v>
       </c>
       <c r="D66">
-        <v>0.1187689743269158</v>
+        <v>-0.0116507550680734</v>
       </c>
       <c r="E66">
-        <v>-0.03250963988127872</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02755863012105754</v>
+      </c>
+      <c r="F66">
+        <v>0.04512398582449693</v>
+      </c>
+      <c r="G66">
+        <v>0.01856879143892731</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001422829049314173</v>
+        <v>0.05460805418016451</v>
       </c>
       <c r="C67">
-        <v>-0.04443484239930523</v>
+        <v>-0.03009867598465681</v>
       </c>
       <c r="D67">
-        <v>0.02579410762999488</v>
+        <v>0.006146810965909071</v>
       </c>
       <c r="E67">
-        <v>-0.001394284574189858</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.005335037105553229</v>
+      </c>
+      <c r="F67">
+        <v>-0.004394261306902558</v>
+      </c>
+      <c r="G67">
+        <v>0.03051584340630576</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04144794482708014</v>
+        <v>0.1347408825712383</v>
       </c>
       <c r="C68">
-        <v>-0.1934359738754419</v>
+        <v>0.2687336284287949</v>
       </c>
       <c r="D68">
-        <v>-0.183848281597702</v>
+        <v>-0.00127728064277918</v>
       </c>
       <c r="E68">
-        <v>0.003089552275168814</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.008790552912428468</v>
+      </c>
+      <c r="F68">
+        <v>-0.03802828890573945</v>
+      </c>
+      <c r="G68">
+        <v>0.02066768710143111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003349409020619533</v>
+        <v>0.07779616351571081</v>
       </c>
       <c r="C69">
-        <v>-0.04679671911542022</v>
+        <v>-0.06512686858829074</v>
       </c>
       <c r="D69">
-        <v>0.05361575480691766</v>
+        <v>0.009015425717001447</v>
       </c>
       <c r="E69">
-        <v>-0.001922703817436585</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.03096668134088976</v>
+      </c>
+      <c r="F69">
+        <v>-0.0417805761314733</v>
+      </c>
+      <c r="G69">
+        <v>0.02548581386069658</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02900227933892734</v>
+        <v>0.1339185234919321</v>
       </c>
       <c r="C71">
-        <v>-0.1719888179132878</v>
+        <v>0.2312764557772734</v>
       </c>
       <c r="D71">
-        <v>-0.1627645439294333</v>
+        <v>0.007980395965008625</v>
       </c>
       <c r="E71">
-        <v>0.01494273957884398</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02468297698934444</v>
+      </c>
+      <c r="F71">
+        <v>-0.01461649092447609</v>
+      </c>
+      <c r="G71">
+        <v>0.03111412603916665</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002601216503557995</v>
+        <v>0.08342644944150406</v>
       </c>
       <c r="C72">
-        <v>-0.05377939705143491</v>
+        <v>-0.07257303361997287</v>
       </c>
       <c r="D72">
-        <v>0.1360767962643122</v>
+        <v>0.008749069875945622</v>
       </c>
       <c r="E72">
-        <v>-0.03386097090372536</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01103640483762835</v>
+      </c>
+      <c r="F72">
+        <v>0.03935195495674457</v>
+      </c>
+      <c r="G72">
+        <v>0.008229296148347897</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.0443521352120104</v>
+        <v>0.398882045295633</v>
       </c>
       <c r="C73">
-        <v>-0.2043533853363416</v>
+        <v>-0.09707276650268055</v>
       </c>
       <c r="D73">
-        <v>0.140142283201385</v>
+        <v>-0.01352306734527684</v>
       </c>
       <c r="E73">
-        <v>-0.1148253129529796</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.05317809976080849</v>
+      </c>
+      <c r="F73">
+        <v>0.5464908880731632</v>
+      </c>
+      <c r="G73">
+        <v>-0.126044607718985</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0009743095431665024</v>
+        <v>0.1174746141714755</v>
       </c>
       <c r="C74">
-        <v>-0.09807531016593315</v>
+        <v>-0.1177810292368686</v>
       </c>
       <c r="D74">
-        <v>0.1277718116737498</v>
+        <v>0.0102629502230484</v>
       </c>
       <c r="E74">
-        <v>-0.02241522048164025</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.02657375435539042</v>
+      </c>
+      <c r="F74">
+        <v>-0.08223416561796139</v>
+      </c>
+      <c r="G74">
+        <v>0.03020629600417929</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.001172088685073477</v>
+        <v>0.2589913338151311</v>
       </c>
       <c r="C75">
-        <v>-0.2319252088093063</v>
+        <v>-0.1528649659504446</v>
       </c>
       <c r="D75">
-        <v>0.2189211984467946</v>
+        <v>0.03105254769316794</v>
       </c>
       <c r="E75">
-        <v>-0.04706887913042893</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.07513442392568453</v>
+      </c>
+      <c r="F75">
+        <v>-0.2034703414323989</v>
+      </c>
+      <c r="G75">
+        <v>-0.04063432035621534</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.005129826939418095</v>
+        <v>0.1357751626280119</v>
       </c>
       <c r="C76">
-        <v>-0.1682507865489252</v>
+        <v>-0.1255351671175168</v>
       </c>
       <c r="D76">
-        <v>0.2067436123103333</v>
+        <v>0.02113484615406402</v>
       </c>
       <c r="E76">
-        <v>-0.01201206136657953</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0675136750121251</v>
+      </c>
+      <c r="F76">
+        <v>-0.1343055484113692</v>
+      </c>
+      <c r="G76">
+        <v>0.01190489462028812</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01222584294654473</v>
+        <v>0.06410390859107697</v>
       </c>
       <c r="C77">
-        <v>-0.01671681424001841</v>
+        <v>-0.06397859887895915</v>
       </c>
       <c r="D77">
-        <v>0.06503981601736919</v>
+        <v>-0.01282882298622239</v>
       </c>
       <c r="E77">
-        <v>-0.01136500700500244</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04912104425682706</v>
+      </c>
+      <c r="F77">
+        <v>0.01494912085032181</v>
+      </c>
+      <c r="G77">
+        <v>0.04912479689046222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004159634794067102</v>
+        <v>0.04096434680370683</v>
       </c>
       <c r="C78">
-        <v>-0.0176722765821037</v>
+        <v>-0.04958741880536591</v>
       </c>
       <c r="D78">
-        <v>0.06257520218761338</v>
+        <v>-0.005472904992532856</v>
       </c>
       <c r="E78">
-        <v>-0.006928508660648478</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.0224665481337812</v>
+      </c>
+      <c r="F78">
+        <v>0.0419863840450292</v>
+      </c>
+      <c r="G78">
+        <v>0.03406409864297073</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01436841695705307</v>
+        <v>0.05887809301981653</v>
       </c>
       <c r="C80">
-        <v>-0.1531718615624425</v>
+        <v>-0.06574688103626461</v>
       </c>
       <c r="D80">
-        <v>0.2362720525690318</v>
+        <v>-0.01195094706813219</v>
       </c>
       <c r="E80">
-        <v>0.8933859792125527</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03861207657346979</v>
+      </c>
+      <c r="F80">
+        <v>0.03897594699781018</v>
+      </c>
+      <c r="G80">
+        <v>0.9136966645947665</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.001472080058509303</v>
+        <v>0.1457045237371609</v>
       </c>
       <c r="C81">
-        <v>-0.1468274462268321</v>
+        <v>-0.09406273447080431</v>
       </c>
       <c r="D81">
-        <v>0.1437187789970955</v>
+        <v>0.01600682211058042</v>
       </c>
       <c r="E81">
-        <v>-0.02086270106144984</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04073202907501261</v>
+      </c>
+      <c r="F81">
+        <v>-0.1339700015297981</v>
+      </c>
+      <c r="G81">
+        <v>0.01243227612441782</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05326424884633682</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.0385742437440809</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002844285334393287</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.02013010801479096</v>
+      </c>
+      <c r="F82">
+        <v>-0.008849831375234003</v>
+      </c>
+      <c r="G82">
+        <v>-0.006212384970595777</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006635935445797831</v>
+        <v>0.02815132674521368</v>
       </c>
       <c r="C83">
-        <v>-0.03039644032304982</v>
+        <v>-0.02084957988054381</v>
       </c>
       <c r="D83">
-        <v>0.02317816991687193</v>
+        <v>-0.005314342570447255</v>
       </c>
       <c r="E83">
-        <v>-0.009126241438011858</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02469060944723149</v>
+      </c>
+      <c r="F83">
+        <v>0.01831643022356285</v>
+      </c>
+      <c r="G83">
+        <v>0.02289822079833374</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.009266697463070676</v>
+        <v>0.2346757549822635</v>
       </c>
       <c r="C85">
-        <v>-0.1813035038952211</v>
+        <v>-0.1505592712688003</v>
       </c>
       <c r="D85">
-        <v>0.2344657534588065</v>
+        <v>0.01960410664442528</v>
       </c>
       <c r="E85">
-        <v>-0.05297610981325201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1205661928385257</v>
+      </c>
+      <c r="F85">
+        <v>-0.177858128582295</v>
+      </c>
+      <c r="G85">
+        <v>-0.06158382103990185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006322114900349607</v>
+        <v>0.01261736264742989</v>
       </c>
       <c r="C86">
-        <v>-0.02130169942480559</v>
+        <v>-0.01576531263612539</v>
       </c>
       <c r="D86">
-        <v>0.009151423501295896</v>
+        <v>-0.009352593150104352</v>
       </c>
       <c r="E86">
-        <v>-0.02024272612958235</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03653906969848411</v>
+      </c>
+      <c r="F86">
+        <v>0.03416033317480453</v>
+      </c>
+      <c r="G86">
+        <v>0.05094267340496543</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007367052878863158</v>
+        <v>0.01688431124103978</v>
       </c>
       <c r="C87">
-        <v>-0.01370148131347833</v>
+        <v>-0.02782788841559493</v>
       </c>
       <c r="D87">
-        <v>0.03776482937297826</v>
+        <v>-0.01146732339819683</v>
       </c>
       <c r="E87">
-        <v>-0.00833875651462076</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07388515538089199</v>
+      </c>
+      <c r="F87">
+        <v>0.04412130387605449</v>
+      </c>
+      <c r="G87">
+        <v>0.04297123499269148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02643734563066261</v>
+        <v>0.09180015173670228</v>
       </c>
       <c r="C88">
-        <v>-0.04854018444479404</v>
+        <v>-0.05952133650766467</v>
       </c>
       <c r="D88">
-        <v>0.02680001848064897</v>
+        <v>-0.02142281909189265</v>
       </c>
       <c r="E88">
-        <v>-0.007401268277155595</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01157084204107199</v>
+      </c>
+      <c r="F88">
+        <v>-0.01362297631446419</v>
+      </c>
+      <c r="G88">
+        <v>0.02116554307716677</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05618789135063009</v>
+        <v>0.2220102100889538</v>
       </c>
       <c r="C89">
-        <v>-0.3368019380856516</v>
+        <v>0.3701570963410186</v>
       </c>
       <c r="D89">
-        <v>-0.2918622705166171</v>
+        <v>0.008927909089797225</v>
       </c>
       <c r="E89">
-        <v>0.00496684532118147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02415616164192244</v>
+      </c>
+      <c r="F89">
+        <v>-0.03117778488384479</v>
+      </c>
+      <c r="G89">
+        <v>0.03110740012223881</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04181570479910918</v>
+        <v>0.1898657142550375</v>
       </c>
       <c r="C90">
-        <v>-0.2439952812934928</v>
+        <v>0.3351150802960749</v>
       </c>
       <c r="D90">
-        <v>-0.2640830025734824</v>
+        <v>0.01202098632111201</v>
       </c>
       <c r="E90">
-        <v>0.001327715299718151</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.009108291817621902</v>
+      </c>
+      <c r="F90">
+        <v>-0.05303905306625215</v>
+      </c>
+      <c r="G90">
+        <v>-0.003440884838873763</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.001327888548668325</v>
+        <v>0.2055516129183101</v>
       </c>
       <c r="C91">
-        <v>-0.1930648272898974</v>
+        <v>-0.1393307702101129</v>
       </c>
       <c r="D91">
-        <v>0.2131713744667209</v>
+        <v>0.02490349258276838</v>
       </c>
       <c r="E91">
-        <v>-0.03293741720960033</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.0873755812343653</v>
+      </c>
+      <c r="F91">
+        <v>-0.1791424589987078</v>
+      </c>
+      <c r="G91">
+        <v>-0.001644240708098787</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.008664276595579976</v>
+        <v>0.2019094817537077</v>
       </c>
       <c r="C92">
-        <v>-0.321169340333062</v>
+        <v>0.2612446496948049</v>
       </c>
       <c r="D92">
-        <v>-0.1416669973625059</v>
+        <v>0.04997400141003334</v>
       </c>
       <c r="E92">
-        <v>-0.001685132415394245</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.002853468856715679</v>
+      </c>
+      <c r="F92">
+        <v>-0.1181336540081598</v>
+      </c>
+      <c r="G92">
+        <v>0.06450865805765189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03905598674169147</v>
+        <v>0.21722069518819</v>
       </c>
       <c r="C93">
-        <v>-0.2825540097418485</v>
+        <v>0.3358721231368208</v>
       </c>
       <c r="D93">
-        <v>-0.2687595004850902</v>
+        <v>0.01931744817354926</v>
       </c>
       <c r="E93">
-        <v>-0.02038815587657779</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.00469159648090748</v>
+      </c>
+      <c r="F93">
+        <v>-0.03049100651293955</v>
+      </c>
+      <c r="G93">
+        <v>-0.00115037148759534</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02032837926187159</v>
+        <v>0.2881858604785648</v>
       </c>
       <c r="C94">
-        <v>-0.2388590198956698</v>
+        <v>-0.1679958705609842</v>
       </c>
       <c r="D94">
-        <v>0.2060598684417691</v>
+        <v>0.01384096818355094</v>
       </c>
       <c r="E94">
-        <v>-0.08059704126041382</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.110347488687148</v>
+      </c>
+      <c r="F94">
+        <v>-0.4256024869942101</v>
+      </c>
+      <c r="G94">
+        <v>-0.1383304650204922</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.005985163011398656</v>
+        <v>0.08852943667901798</v>
       </c>
       <c r="C95">
-        <v>-0.04992838105821117</v>
+        <v>-0.07573394214500244</v>
       </c>
       <c r="D95">
-        <v>0.07163218942224944</v>
+        <v>0.00710084260625941</v>
       </c>
       <c r="E95">
-        <v>-0.122932357901088</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07531361186734782</v>
+      </c>
+      <c r="F95">
+        <v>0.196004526465753</v>
+      </c>
+      <c r="G95">
+        <v>-0.06831353971020294</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.004950525870795516</v>
+        <v>0.207117834931175</v>
       </c>
       <c r="C98">
-        <v>-0.1690037321006057</v>
+        <v>-0.04174503418079868</v>
       </c>
       <c r="D98">
-        <v>0.1020868188924725</v>
+        <v>0.01673605592049935</v>
       </c>
       <c r="E98">
-        <v>-0.07050460583779963</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06122348629838493</v>
+      </c>
+      <c r="F98">
+        <v>0.2553177492314406</v>
+      </c>
+      <c r="G98">
+        <v>-0.03158803043207635</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007132779613047126</v>
+        <v>0.01414812041597496</v>
       </c>
       <c r="C101">
-        <v>-0.01831611816655866</v>
+        <v>-0.02100443828065968</v>
       </c>
       <c r="D101">
-        <v>0.01508108215221532</v>
+        <v>-0.006906445772468318</v>
       </c>
       <c r="E101">
-        <v>0.005352486027661122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.005463377893340687</v>
+      </c>
+      <c r="F101">
+        <v>-0.01443732398972824</v>
+      </c>
+      <c r="G101">
+        <v>0.02858092793708052</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01395085959329935</v>
+        <v>0.1219031622780329</v>
       </c>
       <c r="C102">
-        <v>-0.1149884652814459</v>
+        <v>-0.08321975097132224</v>
       </c>
       <c r="D102">
-        <v>0.1093395938119886</v>
+        <v>-0.0005042661109548823</v>
       </c>
       <c r="E102">
-        <v>-0.02552374732810358</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04133259024689166</v>
+      </c>
+      <c r="F102">
+        <v>-0.05155245714064607</v>
+      </c>
+      <c r="G102">
+        <v>-0.009955285393733602</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001899965503499764</v>
+        <v>0.004560716877997015</v>
       </c>
       <c r="C103">
-        <v>-0.01779548540143923</v>
+        <v>-0.004937621305955265</v>
       </c>
       <c r="D103">
-        <v>0.02682716909949202</v>
+        <v>-0.0004748477377046621</v>
       </c>
       <c r="E103">
-        <v>0.01121859829913223</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001407482899019244</v>
+      </c>
+      <c r="F103">
+        <v>-0.009187717260596879</v>
+      </c>
+      <c r="G103">
+        <v>0.01753242736875743</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9846852857704455</v>
+        <v>0.03577183856857656</v>
       </c>
       <c r="C104">
-        <v>0.1083648640384915</v>
+        <v>0.04302681615326371</v>
       </c>
       <c r="D104">
-        <v>0.005411068507824884</v>
+        <v>-0.9868871615475692</v>
       </c>
       <c r="E104">
-        <v>0.02743382446831985</v>
+        <v>0.04356093835138043</v>
+      </c>
+      <c r="F104">
+        <v>-0.04052265128613613</v>
+      </c>
+      <c r="G104">
+        <v>-0.005298235460006721</v>
       </c>
     </row>
   </sheetData>
